--- a/src/main/resources/rest_infos.xlsx
+++ b/src/main/resources/rest_infos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YangWang\IdeaProjects\MavenHttpDemo\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yawa1hz1\IdeaProjects\MavenHttpDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,7 +595,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -609,7 +609,7 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
